--- a/spec/support/q3fy21RealExampleRoSpreadsheet.xlsx
+++ b/spec/support/q3fy21RealExampleRoSpreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenhalliburton/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyshields/git-repos/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B93C08-3C63-4E47-B133-B85FA68EA65D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8FDF3B-B964-6A43-8ABB-F0C67005B238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14000" yWindow="460" windowWidth="27920" windowHeight="16960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="131">
   <si>
     <t>Example</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>8:30</t>
+  </si>
+  <si>
+    <t>White River Junction, VT</t>
+  </si>
+  <si>
+    <t>RO05</t>
   </si>
 </sst>
 </file>
@@ -1273,42 +1279,12 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,6 +1312,36 @@
     <xf numFmtId="49" fontId="20" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="17" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2550,19 +2556,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -6336,10 +6342,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="72"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="32"/>
       <c r="D1" s="33"/>
       <c r="E1" s="33"/>
@@ -6433,10 +6439,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV98"/>
+  <dimension ref="A1:IV99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6452,16 +6458,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="90" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
       <c r="I1" s="40"/>
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
@@ -6470,16 +6476,16 @@
       <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
       <c r="I2" s="33"/>
       <c r="J2" s="33"/>
       <c r="K2" s="33"/>
@@ -6488,26 +6494,26 @@
       <c r="N2" s="33"/>
     </row>
     <row r="3" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="76" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="87" t="s">
+      <c r="F3" s="77" t="s">
         <v>125</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="76" t="s">
         <v>127</v>
       </c>
       <c r="I3" s="33"/>
@@ -6518,28 +6524,28 @@
       <c r="N3" s="33"/>
     </row>
     <row r="4" spans="1:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="81">
         <v>10</v>
       </c>
-      <c r="E4" s="92">
+      <c r="E4" s="82">
         <v>50</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="82">
         <v>8</v>
       </c>
-      <c r="G4" s="92">
+      <c r="G4" s="82">
         <v>60</v>
       </c>
-      <c r="H4" s="93" t="s">
+      <c r="H4" s="83" t="s">
         <v>128</v>
       </c>
       <c r="I4" s="33"/>
@@ -6551,10 +6557,10 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="70" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="63">
@@ -6566,10 +6572,10 @@
       <c r="F5" s="63">
         <v>12</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="84">
         <v>60</v>
       </c>
-      <c r="H5" s="95" t="s">
+      <c r="H5" s="85" t="s">
         <v>128</v>
       </c>
       <c r="I5" s="33"/>
@@ -6642,19 +6648,19 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="46"/>
       <c r="B8" s="41" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="D8" s="63">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E8" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F8" s="63">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G8" s="33">
         <v>60</v>
@@ -6672,16 +6678,16 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="46"/>
       <c r="B9" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="63">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E9" s="63">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F9" s="63">
         <v>12</v>
@@ -6702,16 +6708,16 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46"/>
       <c r="B10" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E10" s="63">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="63">
         <v>12</v>
@@ -6732,16 +6738,16 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46"/>
       <c r="B11" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="63">
         <v>0</v>
       </c>
       <c r="E11" s="63">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F11" s="63">
         <v>12</v>
@@ -6762,16 +6768,16 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46"/>
       <c r="B12" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="63">
         <v>0</v>
       </c>
       <c r="E12" s="63">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F12" s="63">
         <v>12</v>
@@ -6792,16 +6798,16 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46"/>
       <c r="B13" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="63">
         <v>0</v>
       </c>
       <c r="E13" s="63">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="F13" s="63">
         <v>12</v>
@@ -6822,16 +6828,16 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="46"/>
       <c r="B14" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="63">
         <v>0</v>
       </c>
       <c r="E14" s="63">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F14" s="63">
         <v>12</v>
@@ -6852,16 +6858,16 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="46"/>
       <c r="B15" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15" s="63">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F15" s="63">
         <v>12</v>
@@ -6882,13 +6888,13 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="46"/>
       <c r="B16" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E16" s="63">
         <v>60</v>
@@ -6912,16 +6918,16 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="46"/>
       <c r="B17" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E17" s="63">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="F17" s="63">
         <v>12</v>
@@ -6942,16 +6948,16 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E18" s="63">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="F18" s="63">
         <v>12</v>
@@ -6972,16 +6978,16 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="46"/>
       <c r="B19" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E19" s="63">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="F19" s="63">
         <v>12</v>
@@ -7002,16 +7008,16 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="46"/>
       <c r="B20" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="63">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E20" s="63">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="F20" s="63">
         <v>12</v>
@@ -7032,13 +7038,13 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="46"/>
       <c r="B21" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E21" s="63">
         <v>60</v>
@@ -7062,16 +7068,16 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="63">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E22" s="63">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F22" s="63">
         <v>12</v>
@@ -7092,16 +7098,16 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="46"/>
       <c r="B23" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E23" s="63">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F23" s="63">
         <v>12</v>
@@ -7122,16 +7128,16 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="46"/>
       <c r="B24" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="63">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E24" s="63">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="F24" s="63">
         <v>12</v>
@@ -7152,16 +7158,16 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
       <c r="B25" s="41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E25" s="63">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="F25" s="63">
         <v>12</v>
@@ -7182,16 +7188,16 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="46"/>
       <c r="B26" s="41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E26" s="63">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="F26" s="63">
         <v>12</v>
@@ -7212,16 +7218,16 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="46"/>
       <c r="B27" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="63">
         <v>0</v>
       </c>
       <c r="E27" s="63">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F27" s="63">
         <v>12</v>
@@ -7242,16 +7248,16 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="46"/>
       <c r="B28" s="41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="63">
         <v>0</v>
       </c>
       <c r="E28" s="63">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="F28" s="63">
         <v>12</v>
@@ -7272,16 +7278,16 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="63">
         <v>0</v>
       </c>
       <c r="E29" s="63">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="F29" s="63">
         <v>12</v>
@@ -7302,16 +7308,16 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="46"/>
       <c r="B30" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="63">
         <v>0</v>
       </c>
       <c r="E30" s="63">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F30" s="63">
         <v>12</v>
@@ -7332,16 +7338,16 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="46"/>
       <c r="B31" s="41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C31" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="63">
         <v>0</v>
       </c>
       <c r="E31" s="63">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F31" s="63">
         <v>12</v>
@@ -7362,16 +7368,16 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="46"/>
       <c r="B32" s="41" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C32" s="42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="63">
         <v>0</v>
       </c>
       <c r="E32" s="63">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F32" s="63">
         <v>12</v>
@@ -7392,16 +7398,16 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="46"/>
       <c r="B33" s="41" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E33" s="63">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F33" s="63">
         <v>12</v>
@@ -7422,16 +7428,16 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="46"/>
       <c r="B34" s="41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E34" s="63">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F34" s="63">
         <v>12</v>
@@ -7452,16 +7458,16 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="46"/>
       <c r="B35" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="63">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E35" s="63">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="F35" s="63">
         <v>12</v>
@@ -7482,16 +7488,16 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="46"/>
       <c r="B36" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E36" s="63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" s="63">
         <v>12</v>
@@ -7512,16 +7518,16 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="46"/>
       <c r="B37" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="63">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E37" s="63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37" s="63">
         <v>12</v>
@@ -7542,16 +7548,16 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="46"/>
       <c r="B38" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E38" s="63">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="F38" s="63">
         <v>12</v>
@@ -7572,16 +7578,16 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="46"/>
       <c r="B39" s="41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="63">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E39" s="63">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F39" s="63">
         <v>12</v>
@@ -7602,16 +7608,16 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="46"/>
       <c r="B40" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="63">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E40" s="63">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F40" s="63">
         <v>12</v>
@@ -7632,16 +7638,16 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="46"/>
       <c r="B41" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="63">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E41" s="63">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F41" s="63">
         <v>12</v>
@@ -7662,16 +7668,16 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="46"/>
       <c r="B42" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="63">
         <v>0</v>
       </c>
       <c r="E42" s="63">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="F42" s="63">
         <v>12</v>
@@ -7692,16 +7698,16 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="46"/>
       <c r="B43" s="41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="63">
         <v>0</v>
       </c>
       <c r="E43" s="63">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F43" s="63">
         <v>12</v>
@@ -7722,16 +7728,16 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="46"/>
       <c r="B44" s="41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="63">
         <v>0</v>
       </c>
       <c r="E44" s="63">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F44" s="63">
         <v>12</v>
@@ -7752,16 +7758,16 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="46"/>
       <c r="B45" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="63">
         <v>0</v>
       </c>
       <c r="E45" s="63">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F45" s="63">
         <v>12</v>
@@ -7782,16 +7788,16 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="46"/>
       <c r="B46" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="63">
         <v>0</v>
       </c>
       <c r="E46" s="63">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F46" s="63">
         <v>12</v>
@@ -7812,16 +7818,16 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="46"/>
       <c r="B47" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="63">
         <v>0</v>
       </c>
       <c r="E47" s="63">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F47" s="63">
         <v>12</v>
@@ -7842,16 +7848,16 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="46"/>
       <c r="B48" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="63">
         <v>0</v>
       </c>
       <c r="E48" s="63">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="F48" s="63">
         <v>12</v>
@@ -7872,16 +7878,16 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="46"/>
       <c r="B49" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="63">
         <v>0</v>
       </c>
       <c r="E49" s="63">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="F49" s="63">
         <v>12</v>
@@ -7902,16 +7908,16 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="46"/>
       <c r="B50" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="63">
         <v>0</v>
       </c>
       <c r="E50" s="63">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F50" s="63">
         <v>12</v>
@@ -7932,16 +7938,16 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="46"/>
       <c r="B51" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="63">
         <v>0</v>
       </c>
       <c r="E51" s="63">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="F51" s="63">
         <v>12</v>
@@ -7962,16 +7968,16 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="46"/>
       <c r="B52" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="63">
         <v>0</v>
       </c>
       <c r="E52" s="63">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F52" s="63">
         <v>12</v>
@@ -7992,16 +7998,16 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="46"/>
       <c r="B53" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="63">
         <v>0</v>
       </c>
       <c r="E53" s="63">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F53" s="63">
         <v>12</v>
@@ -8022,16 +8028,16 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="46"/>
       <c r="B54" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="63">
         <v>0</v>
       </c>
       <c r="E54" s="63">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F54" s="63">
         <v>12</v>
@@ -8052,16 +8058,16 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="46"/>
       <c r="B55" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="63">
         <v>0</v>
       </c>
       <c r="E55" s="63">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F55" s="63">
         <v>12</v>
@@ -8082,16 +8088,16 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="46"/>
       <c r="B56" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="63">
         <v>0</v>
       </c>
       <c r="E56" s="63">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="F56" s="63">
         <v>12</v>
@@ -8112,16 +8118,16 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="46"/>
       <c r="B57" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="63">
         <v>0</v>
       </c>
       <c r="E57" s="63">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="F57" s="63">
         <v>12</v>
@@ -8142,16 +8148,16 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="46"/>
       <c r="B58" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="63">
         <v>0</v>
       </c>
       <c r="E58" s="63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F58" s="63">
         <v>12</v>
@@ -8172,16 +8178,16 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="46"/>
       <c r="B59" s="41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="63">
         <v>0</v>
       </c>
       <c r="E59" s="63">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F59" s="63">
         <v>12</v>
@@ -8202,10 +8208,10 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="46"/>
       <c r="B60" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="C60" s="64" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>58</v>
       </c>
       <c r="D60" s="63">
         <v>0</v>
@@ -8231,13 +8237,27 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="46"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33"/>
+      <c r="B61" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="63">
+        <v>0</v>
+      </c>
+      <c r="E61" s="63">
+        <v>25</v>
+      </c>
+      <c r="F61" s="63">
+        <v>12</v>
+      </c>
+      <c r="G61" s="33">
+        <v>60</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>128</v>
+      </c>
       <c r="I61" s="33"/>
       <c r="J61" s="33"/>
       <c r="K61" s="33"/>
@@ -8329,7 +8349,7 @@
       <c r="A67" s="46"/>
       <c r="B67" s="32"/>
       <c r="C67" s="33"/>
-      <c r="D67" s="43"/>
+      <c r="D67" s="47"/>
       <c r="E67" s="49"/>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -8822,7 +8842,7 @@
       <c r="N97" s="33"/>
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="48"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="32"/>
       <c r="C98" s="33"/>
       <c r="D98" s="43"/>
@@ -8837,6 +8857,22 @@
       <c r="M98" s="33"/>
       <c r="N98" s="33"/>
     </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="48"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="43"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="33"/>
+      <c r="L99" s="33"/>
+      <c r="M99" s="33"/>
+      <c r="N99" s="33"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>

--- a/spec/support/q3fy21RealExampleRoSpreadsheet.xlsx
+++ b/spec/support/q3fy21RealExampleRoSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyshields/git-repos/caseflow/spec/support/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A8FDF3B-B964-6A43-8ABB-F0C67005B238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9295FA-6C67-D94C-9BFB-749CFF2F13A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RO Non-Availability Dates" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="131">
   <si>
     <t>Example</t>
   </si>
@@ -2532,10 +2532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IT92"/>
+  <dimension ref="A1:IU92"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2545,13 +2545,14 @@
     <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
-    <col min="7" max="57" width="11" style="1" customWidth="1"/>
-    <col min="58" max="58" width="11" style="39" customWidth="1"/>
-    <col min="59" max="254" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="1" customWidth="1"/>
+    <col min="8" max="58" width="11" style="1" customWidth="1"/>
+    <col min="59" max="59" width="11" style="39" customWidth="1"/>
+    <col min="60" max="255" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:59" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2569,7 +2570,7 @@
       <c r="K1" s="87"/>
       <c r="L1" s="87"/>
       <c r="M1" s="87"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="87"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -2612,10 +2613,11 @@
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
       <c r="BD1" s="4"/>
-      <c r="BE1" s="5"/>
+      <c r="BE1" s="4"/>
       <c r="BF1" s="5"/>
-    </row>
-    <row r="2" spans="1:58" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG1" s="5"/>
+    </row>
+    <row r="2" spans="1:59" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2632,166 +2634,169 @@
         <v>6</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="9" t="s">
+      <c r="U2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="V2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="Z2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AB2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="AC2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="9" t="s">
+      <c r="AE2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="9" t="s">
+      <c r="AG2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AG2" s="9" t="s">
+      <c r="AH2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AP2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AQ2" s="9" t="s">
+      <c r="AR2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="9" t="s">
+      <c r="AS2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AS2" s="9" t="s">
+      <c r="AT2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AT2" s="9" t="s">
+      <c r="AU2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="9" t="s">
+      <c r="AV2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AV2" s="9" t="s">
+      <c r="AW2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AW2" s="9" t="s">
+      <c r="AX2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AY2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AY2" s="9" t="s">
+      <c r="AZ2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AZ2" s="9" t="s">
+      <c r="BA2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BA2" s="9" t="s">
+      <c r="BB2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BB2" s="9" t="s">
+      <c r="BC2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BC2" s="9" t="s">
+      <c r="BD2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="BD2" s="9" t="s">
+      <c r="BE2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="BE2" s="9" t="s">
+      <c r="BF2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="BF2" s="64" t="s">
+      <c r="BG2" s="64" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:58" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:59" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
@@ -2808,166 +2813,169 @@
         <v>63</v>
       </c>
       <c r="F3" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="H3" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="L3" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="M3" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="N3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="S3" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="AA3" s="12" t="s">
+      <c r="AB3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AC3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AC3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AE3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AF3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AP3" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AP3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AR3" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AS3" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AT3" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AW3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="BA3" s="12" t="s">
+      <c r="BB3" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BC3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="BF3" s="41" t="s">
+      <c r="BG3" s="41" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:58" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:59" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>116</v>
       </c>
@@ -2986,14 +2994,14 @@
       <c r="F4" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="67">
         <v>44314</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>120</v>
       </c>
       <c r="J4" s="53" t="s">
         <v>120</v>
@@ -3010,47 +3018,47 @@
       <c r="N4" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="P4" s="52">
         <v>44347</v>
       </c>
-      <c r="P4" s="53" t="s">
+      <c r="Q4" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="R4" s="52">
         <v>44292</v>
       </c>
-      <c r="R4" s="52">
+      <c r="S4" s="52">
         <v>44288</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="T4" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="T4" s="52" t="s">
+      <c r="U4" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="U4" s="52">
+      <c r="V4" s="52">
         <v>44312</v>
       </c>
-      <c r="V4" s="55">
+      <c r="W4" s="55">
         <v>44358</v>
       </c>
-      <c r="W4" s="52">
+      <c r="X4" s="52">
         <v>44361</v>
       </c>
-      <c r="X4" s="52">
+      <c r="Y4" s="52">
         <v>44329</v>
       </c>
-      <c r="Y4" s="52">
+      <c r="Z4" s="52">
         <v>44312</v>
       </c>
-      <c r="Z4" s="56" t="s">
+      <c r="AA4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AA4" s="52">
+      <c r="AB4" s="52">
         <v>44293</v>
-      </c>
-      <c r="AB4" s="56" t="s">
-        <v>120</v>
       </c>
       <c r="AC4" s="56" t="s">
         <v>120</v>
@@ -3058,32 +3066,32 @@
       <c r="AD4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AE4" s="55">
+      <c r="AE4" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF4" s="55">
         <v>44344</v>
       </c>
-      <c r="AF4" s="52">
+      <c r="AG4" s="52">
         <v>44315</v>
       </c>
-      <c r="AG4" s="54">
+      <c r="AH4" s="54">
         <v>44287</v>
       </c>
-      <c r="AH4" s="52">
+      <c r="AI4" s="52">
         <v>44314</v>
       </c>
-      <c r="AI4" s="52">
+      <c r="AJ4" s="52">
         <v>44293</v>
       </c>
-      <c r="AJ4" s="56" t="s">
+      <c r="AK4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AK4" s="52" t="s">
+      <c r="AL4" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="AL4" s="52">
+      <c r="AM4" s="52">
         <v>44327</v>
-      </c>
-      <c r="AM4" s="56" t="s">
-        <v>120</v>
       </c>
       <c r="AN4" s="56" t="s">
         <v>120</v>
@@ -3091,47 +3099,47 @@
       <c r="AO4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AP4" s="52">
+      <c r="AP4" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ4" s="52">
         <v>44287</v>
       </c>
-      <c r="AQ4" s="56" t="s">
+      <c r="AR4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AR4" s="52" t="s">
+      <c r="AS4" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="AS4" s="52">
+      <c r="AT4" s="52">
         <v>44315</v>
       </c>
-      <c r="AT4" s="52">
+      <c r="AU4" s="52">
         <v>44340</v>
       </c>
-      <c r="AU4" s="56" t="s">
+      <c r="AV4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AV4" s="52">
+      <c r="AW4" s="52">
         <v>44291</v>
       </c>
-      <c r="AW4" s="56" t="s">
+      <c r="AX4" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="AX4" s="52">
+      <c r="AY4" s="52">
         <v>44343</v>
       </c>
-      <c r="AY4" s="52">
+      <c r="AZ4" s="52">
         <v>44288</v>
       </c>
-      <c r="AZ4" s="52">
+      <c r="BA4" s="52">
         <v>44294</v>
-      </c>
-      <c r="BA4" s="52">
-        <v>44288</v>
       </c>
       <c r="BB4" s="52">
         <v>44288</v>
       </c>
-      <c r="BC4" s="56" t="s">
-        <v>120</v>
+      <c r="BC4" s="52">
+        <v>44288</v>
       </c>
       <c r="BD4" s="56" t="s">
         <v>120</v>
@@ -3142,8 +3150,11 @@
       <c r="BF4" s="56" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG4" s="56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="17">
         <v>43497</v>
@@ -3154,108 +3165,109 @@
       </c>
       <c r="E5" s="57"/>
       <c r="F5" s="52"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="67">
+      <c r="G5" s="52"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="67">
         <v>44315</v>
       </c>
-      <c r="I5" s="57"/>
       <c r="J5" s="57"/>
       <c r="K5" s="57"/>
       <c r="L5" s="57"/>
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
-      <c r="O5" s="52">
+      <c r="O5" s="57"/>
+      <c r="P5" s="52">
         <v>44348</v>
       </c>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="52">
+      <c r="Q5" s="57"/>
+      <c r="R5" s="52">
         <v>44320</v>
       </c>
-      <c r="R5" s="52">
+      <c r="S5" s="52">
         <v>44291</v>
       </c>
-      <c r="S5" s="57"/>
       <c r="T5" s="57"/>
-      <c r="U5" s="52">
+      <c r="U5" s="57"/>
+      <c r="V5" s="52">
         <v>44347</v>
       </c>
-      <c r="V5" s="55">
+      <c r="W5" s="55">
         <v>44361</v>
       </c>
-      <c r="W5" s="52">
+      <c r="X5" s="52">
         <v>44362</v>
       </c>
-      <c r="X5" s="52">
+      <c r="Y5" s="52">
         <v>44330</v>
       </c>
-      <c r="Y5" s="52">
+      <c r="Z5" s="52">
         <v>44313</v>
       </c>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="52">
+      <c r="AA5" s="57"/>
+      <c r="AB5" s="52">
         <v>44300</v>
       </c>
-      <c r="AB5" s="57"/>
       <c r="AC5" s="57"/>
       <c r="AD5" s="57"/>
-      <c r="AE5" s="55">
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="55">
         <v>44348</v>
       </c>
-      <c r="AF5" s="52">
+      <c r="AG5" s="52">
         <v>44316</v>
       </c>
-      <c r="AG5" s="54">
+      <c r="AH5" s="54">
         <v>44288</v>
       </c>
-      <c r="AH5" s="52">
+      <c r="AI5" s="52">
         <v>44315</v>
       </c>
-      <c r="AI5" s="52">
+      <c r="AJ5" s="52">
         <v>44294</v>
       </c>
-      <c r="AJ5" s="57"/>
       <c r="AK5" s="57"/>
-      <c r="AL5" s="52">
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="52">
         <v>44347</v>
       </c>
-      <c r="AM5" s="57"/>
       <c r="AN5" s="57"/>
       <c r="AO5" s="57"/>
-      <c r="AP5" s="52">
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="52">
         <v>44288</v>
       </c>
-      <c r="AQ5" s="57"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52">
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52">
         <v>44316</v>
       </c>
-      <c r="AT5" s="52">
+      <c r="AU5" s="52">
         <v>44341</v>
       </c>
-      <c r="AU5" s="57"/>
-      <c r="AV5" s="52">
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="52">
         <v>44292</v>
       </c>
-      <c r="AW5" s="57"/>
-      <c r="AX5" s="52">
+      <c r="AX5" s="57"/>
+      <c r="AY5" s="52">
         <v>44344</v>
       </c>
-      <c r="AY5" s="52">
+      <c r="AZ5" s="52">
         <v>44347</v>
       </c>
-      <c r="AZ5" s="52">
+      <c r="BA5" s="52">
         <v>44295</v>
       </c>
-      <c r="BA5" s="52">
+      <c r="BB5" s="52">
         <v>44358</v>
       </c>
-      <c r="BB5" s="52"/>
-      <c r="BC5" s="57"/>
+      <c r="BC5" s="52"/>
       <c r="BD5" s="57"/>
-      <c r="BE5" s="58"/>
+      <c r="BE5" s="57"/>
       <c r="BF5" s="58"/>
-    </row>
-    <row r="6" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG5" s="58"/>
+    </row>
+    <row r="6" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="19">
         <v>43540</v>
@@ -3264,98 +3276,99 @@
       <c r="D6" s="52"/>
       <c r="E6" s="59"/>
       <c r="F6" s="52"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="67">
+      <c r="G6" s="52"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="67">
         <v>44316</v>
       </c>
-      <c r="I6" s="59"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
       <c r="M6" s="59"/>
       <c r="N6" s="59"/>
-      <c r="O6" s="52">
+      <c r="O6" s="59"/>
+      <c r="P6" s="52">
         <v>44349</v>
       </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="52">
+      <c r="Q6" s="59"/>
+      <c r="R6" s="52">
         <v>44348</v>
       </c>
-      <c r="R6" s="52">
+      <c r="S6" s="52">
         <v>44295</v>
       </c>
-      <c r="S6" s="59"/>
       <c r="T6" s="59"/>
-      <c r="U6" s="52">
+      <c r="U6" s="59"/>
+      <c r="V6" s="52">
         <v>44348</v>
       </c>
-      <c r="V6" s="55">
+      <c r="W6" s="55">
         <v>44362</v>
       </c>
-      <c r="W6" s="52">
+      <c r="X6" s="52">
         <v>44363</v>
       </c>
-      <c r="X6" s="52">
+      <c r="Y6" s="52">
         <v>44336</v>
       </c>
-      <c r="Y6" s="52">
+      <c r="Z6" s="52">
         <v>44314</v>
       </c>
-      <c r="Z6" s="59"/>
-      <c r="AA6" s="52">
+      <c r="AA6" s="59"/>
+      <c r="AB6" s="52">
         <v>44307</v>
       </c>
-      <c r="AB6" s="59"/>
       <c r="AC6" s="59"/>
       <c r="AD6" s="59"/>
       <c r="AE6" s="59"/>
       <c r="AF6" s="59"/>
-      <c r="AG6" s="54">
+      <c r="AG6" s="59"/>
+      <c r="AH6" s="54">
         <v>44291</v>
       </c>
-      <c r="AH6" s="52">
+      <c r="AI6" s="52">
         <v>44319</v>
       </c>
-      <c r="AI6" s="52">
+      <c r="AJ6" s="52">
         <v>44295</v>
       </c>
-      <c r="AJ6" s="59"/>
       <c r="AK6" s="59"/>
-      <c r="AL6" s="52">
+      <c r="AL6" s="59"/>
+      <c r="AM6" s="52">
         <v>44348</v>
       </c>
-      <c r="AM6" s="59"/>
       <c r="AN6" s="59"/>
       <c r="AO6" s="59"/>
-      <c r="AP6" s="52">
+      <c r="AP6" s="59"/>
+      <c r="AQ6" s="52">
         <v>44312</v>
       </c>
-      <c r="AQ6" s="59"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="59"/>
-      <c r="AT6" s="52">
+      <c r="AR6" s="59"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="59"/>
+      <c r="AU6" s="52">
         <v>44342</v>
       </c>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="52">
+      <c r="AV6" s="59"/>
+      <c r="AW6" s="52">
         <v>44293</v>
       </c>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="52">
+      <c r="AX6" s="59"/>
+      <c r="AY6" s="52">
         <v>44375</v>
       </c>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="52">
+      <c r="AZ6" s="59"/>
+      <c r="BA6" s="52">
         <v>44319</v>
       </c>
-      <c r="BA6" s="59"/>
-      <c r="BB6" s="52"/>
-      <c r="BC6" s="59"/>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="52"/>
       <c r="BD6" s="59"/>
       <c r="BE6" s="59"/>
       <c r="BF6" s="59"/>
-    </row>
-    <row r="7" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG6" s="59"/>
+    </row>
+    <row r="7" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="20">
         <v>43576</v>
@@ -3364,90 +3377,91 @@
       <c r="D7" s="52"/>
       <c r="E7" s="57"/>
       <c r="F7" s="52"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="67">
+      <c r="G7" s="52"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67">
         <v>44319</v>
       </c>
-      <c r="I7" s="57"/>
       <c r="J7" s="57"/>
       <c r="K7" s="57"/>
       <c r="L7" s="57"/>
       <c r="M7" s="57"/>
       <c r="N7" s="57"/>
-      <c r="O7" s="52">
+      <c r="O7" s="57"/>
+      <c r="P7" s="52">
         <v>44350</v>
       </c>
-      <c r="P7" s="57"/>
       <c r="Q7" s="57"/>
-      <c r="R7" s="52">
+      <c r="R7" s="57"/>
+      <c r="S7" s="52">
         <v>44302</v>
       </c>
-      <c r="S7" s="57"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="52">
+      <c r="U7" s="57"/>
+      <c r="V7" s="52">
         <v>44349</v>
       </c>
-      <c r="V7" s="55">
+      <c r="W7" s="55">
         <v>44363</v>
       </c>
-      <c r="W7" s="52">
+      <c r="X7" s="52">
         <v>44364</v>
       </c>
-      <c r="X7" s="52">
+      <c r="Y7" s="52">
         <v>44337</v>
       </c>
-      <c r="Y7" s="52">
+      <c r="Z7" s="52">
         <v>44315</v>
       </c>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="52">
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="52">
         <v>44314</v>
       </c>
-      <c r="AB7" s="57"/>
       <c r="AC7" s="57"/>
       <c r="AD7" s="57"/>
       <c r="AE7" s="57"/>
       <c r="AF7" s="57"/>
-      <c r="AG7" s="54">
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="54">
         <v>44309</v>
       </c>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="57"/>
+      <c r="AI7" s="52"/>
       <c r="AJ7" s="57"/>
       <c r="AK7" s="57"/>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="52"/>
       <c r="AN7" s="57"/>
       <c r="AO7" s="57"/>
-      <c r="AP7" s="52">
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="52">
         <v>44313</v>
       </c>
-      <c r="AQ7" s="57"/>
-      <c r="AR7" s="52"/>
-      <c r="AS7" s="57"/>
-      <c r="AT7" s="52">
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="52">
         <v>44343</v>
       </c>
-      <c r="AU7" s="57"/>
-      <c r="AV7" s="52">
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="52">
         <v>44294</v>
       </c>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="52">
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="52">
         <v>44376</v>
       </c>
-      <c r="AY7" s="57"/>
-      <c r="AZ7" s="52">
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="52">
         <v>44341</v>
       </c>
-      <c r="BA7" s="57"/>
-      <c r="BB7" s="52"/>
-      <c r="BC7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="52"/>
       <c r="BD7" s="57"/>
-      <c r="BE7" s="58"/>
+      <c r="BE7" s="57"/>
       <c r="BF7" s="58"/>
-    </row>
-    <row r="8" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG7" s="58"/>
+    </row>
+    <row r="8" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="22">
         <v>43604</v>
@@ -3456,101 +3470,102 @@
       <c r="D8" s="52"/>
       <c r="E8" s="59"/>
       <c r="F8" s="59"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66">
+      <c r="G8" s="59"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66">
         <v>44320</v>
       </c>
-      <c r="I8" s="59"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
       <c r="L8" s="59"/>
       <c r="M8" s="59"/>
       <c r="N8" s="59"/>
-      <c r="O8" s="52">
+      <c r="O8" s="59"/>
+      <c r="P8" s="52">
         <v>44351</v>
       </c>
-      <c r="P8" s="59"/>
       <c r="Q8" s="59"/>
-      <c r="R8" s="52">
+      <c r="R8" s="59"/>
+      <c r="S8" s="52">
         <v>44309</v>
       </c>
-      <c r="S8" s="59"/>
       <c r="T8" s="59"/>
-      <c r="U8" s="52">
+      <c r="U8" s="59"/>
+      <c r="V8" s="52">
         <v>44350</v>
       </c>
-      <c r="V8" s="55">
+      <c r="W8" s="55">
         <v>44364</v>
       </c>
-      <c r="W8" s="52">
+      <c r="X8" s="52">
         <v>44365</v>
       </c>
-      <c r="X8" s="52">
+      <c r="Y8" s="52">
         <v>44343</v>
       </c>
-      <c r="Y8" s="52">
+      <c r="Z8" s="52">
         <v>44316</v>
       </c>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="52">
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="52">
         <v>44321</v>
       </c>
-      <c r="AB8" s="59"/>
       <c r="AC8" s="59"/>
       <c r="AD8" s="59"/>
       <c r="AE8" s="59"/>
       <c r="AF8" s="59"/>
-      <c r="AG8" s="54">
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="54">
         <v>44323</v>
       </c>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="59"/>
+      <c r="AI8" s="52"/>
       <c r="AJ8" s="59"/>
       <c r="AK8" s="59"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="59"/>
+      <c r="AL8" s="59"/>
+      <c r="AM8" s="52"/>
       <c r="AN8" s="59"/>
       <c r="AO8" s="59"/>
-      <c r="AP8" s="52">
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="52">
         <v>44314</v>
       </c>
-      <c r="AQ8" s="59"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="59"/>
-      <c r="AT8" s="52">
+      <c r="AR8" s="59"/>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="59"/>
+      <c r="AU8" s="52">
         <v>44344</v>
       </c>
-      <c r="AU8" s="59"/>
-      <c r="AV8" s="52">
+      <c r="AV8" s="59"/>
+      <c r="AW8" s="52">
         <v>44295</v>
       </c>
-      <c r="AW8" s="59"/>
-      <c r="AX8" s="52">
+      <c r="AX8" s="59"/>
+      <c r="AY8" s="52">
         <v>44377</v>
       </c>
-      <c r="AY8" s="59"/>
-      <c r="AZ8" s="52">
+      <c r="AZ8" s="59"/>
+      <c r="BA8" s="52">
         <v>44358</v>
       </c>
-      <c r="BA8" s="59"/>
-      <c r="BB8" s="52"/>
-      <c r="BC8" s="59"/>
+      <c r="BB8" s="59"/>
+      <c r="BC8" s="52"/>
       <c r="BD8" s="59"/>
       <c r="BE8" s="59"/>
       <c r="BF8" s="59"/>
-    </row>
-    <row r="9" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG8" s="59"/>
+    </row>
+    <row r="9" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="23"/>
       <c r="C9" s="51"/>
       <c r="D9" s="52"/>
       <c r="E9" s="57"/>
       <c r="F9" s="57"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66">
+      <c r="G9" s="57"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66">
         <v>44321</v>
       </c>
-      <c r="I9" s="57"/>
       <c r="J9" s="57"/>
       <c r="K9" s="57"/>
       <c r="L9" s="57"/>
@@ -3559,80 +3574,81 @@
       <c r="O9" s="57"/>
       <c r="P9" s="57"/>
       <c r="Q9" s="57"/>
-      <c r="R9" s="52">
+      <c r="R9" s="57"/>
+      <c r="S9" s="52">
         <v>44316</v>
       </c>
-      <c r="S9" s="57"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="52">
+      <c r="U9" s="57"/>
+      <c r="V9" s="52">
         <v>44351</v>
       </c>
-      <c r="V9" s="55">
+      <c r="W9" s="55">
         <v>44365</v>
       </c>
-      <c r="W9" s="60">
+      <c r="X9" s="60">
         <v>44369</v>
       </c>
-      <c r="X9" s="52">
+      <c r="Y9" s="52">
         <v>44344</v>
       </c>
-      <c r="Y9" s="57"/>
       <c r="Z9" s="57"/>
-      <c r="AA9" s="52">
+      <c r="AA9" s="57"/>
+      <c r="AB9" s="52">
         <v>44328</v>
       </c>
-      <c r="AB9" s="57"/>
       <c r="AC9" s="57"/>
       <c r="AD9" s="57"/>
       <c r="AE9" s="57"/>
       <c r="AF9" s="57"/>
-      <c r="AG9" s="54">
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="54">
         <v>44351</v>
       </c>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="57"/>
+      <c r="AI9" s="52"/>
       <c r="AJ9" s="57"/>
       <c r="AK9" s="57"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="52"/>
       <c r="AN9" s="57"/>
       <c r="AO9" s="57"/>
-      <c r="AP9" s="52">
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="52">
         <v>44315</v>
       </c>
-      <c r="AQ9" s="57"/>
       <c r="AR9" s="57"/>
       <c r="AS9" s="57"/>
-      <c r="AT9" s="52">
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="52">
         <v>44375</v>
       </c>
-      <c r="AU9" s="57"/>
-      <c r="AV9" s="52">
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="52">
         <v>44319</v>
       </c>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="52"/>
       <c r="AZ9" s="57"/>
       <c r="BA9" s="57"/>
       <c r="BB9" s="57"/>
       <c r="BC9" s="57"/>
       <c r="BD9" s="57"/>
-      <c r="BE9" s="58"/>
+      <c r="BE9" s="57"/>
       <c r="BF9" s="58"/>
-    </row>
-    <row r="10" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG9" s="58"/>
+    </row>
+    <row r="10" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="24"/>
       <c r="C10" s="51"/>
       <c r="D10" s="52"/>
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66">
+      <c r="G10" s="59"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66">
         <v>44322</v>
       </c>
-      <c r="I10" s="59"/>
       <c r="J10" s="59"/>
       <c r="K10" s="59"/>
       <c r="L10" s="59"/>
@@ -3641,56 +3657,56 @@
       <c r="O10" s="59"/>
       <c r="P10" s="59"/>
       <c r="Q10" s="59"/>
-      <c r="R10" s="52">
+      <c r="R10" s="59"/>
+      <c r="S10" s="52">
         <v>44323</v>
       </c>
-      <c r="S10" s="59"/>
       <c r="T10" s="59"/>
-      <c r="U10" s="52">
+      <c r="U10" s="59"/>
+      <c r="V10" s="52">
         <v>44352</v>
       </c>
-      <c r="V10" s="55"/>
-      <c r="W10" s="60">
+      <c r="W10" s="55"/>
+      <c r="X10" s="60">
         <v>44370</v>
       </c>
-      <c r="X10" s="52">
+      <c r="Y10" s="52">
         <v>44349</v>
       </c>
-      <c r="Y10" s="59"/>
       <c r="Z10" s="59"/>
-      <c r="AA10" s="52">
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="52">
         <v>44335</v>
       </c>
-      <c r="AB10" s="59"/>
       <c r="AC10" s="59"/>
       <c r="AD10" s="59"/>
       <c r="AE10" s="59"/>
       <c r="AF10" s="59"/>
       <c r="AG10" s="59"/>
-      <c r="AH10" s="52"/>
-      <c r="AI10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="52"/>
       <c r="AJ10" s="59"/>
       <c r="AK10" s="59"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="52"/>
       <c r="AN10" s="59"/>
       <c r="AO10" s="59"/>
-      <c r="AP10" s="52">
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="52">
         <v>44316</v>
       </c>
-      <c r="AQ10" s="59"/>
       <c r="AR10" s="59"/>
       <c r="AS10" s="59"/>
-      <c r="AT10" s="52">
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="52">
         <v>44376</v>
       </c>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="52">
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="52">
         <v>44320</v>
       </c>
-      <c r="AW10" s="59"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="52"/>
       <c r="AZ10" s="59"/>
       <c r="BA10" s="59"/>
       <c r="BB10" s="59"/>
@@ -3698,19 +3714,20 @@
       <c r="BD10" s="59"/>
       <c r="BE10" s="59"/>
       <c r="BF10" s="59"/>
-    </row>
-    <row r="11" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG10" s="59"/>
+    </row>
+    <row r="11" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="16"/>
       <c r="B11" s="25"/>
       <c r="C11" s="51"/>
       <c r="D11" s="52"/>
       <c r="E11" s="57"/>
       <c r="F11" s="57"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66">
+      <c r="G11" s="57"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66">
         <v>44323</v>
       </c>
-      <c r="I11" s="57"/>
       <c r="J11" s="57"/>
       <c r="K11" s="57"/>
       <c r="L11" s="57"/>
@@ -3719,65 +3736,66 @@
       <c r="O11" s="57"/>
       <c r="P11" s="57"/>
       <c r="Q11" s="57"/>
-      <c r="R11" s="52">
+      <c r="R11" s="57"/>
+      <c r="S11" s="52">
         <v>44326</v>
       </c>
-      <c r="S11" s="57"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="52">
+      <c r="U11" s="57"/>
+      <c r="V11" s="52">
         <v>44353</v>
       </c>
-      <c r="V11" s="55"/>
-      <c r="W11" s="60">
+      <c r="W11" s="55"/>
+      <c r="X11" s="60">
         <v>44371</v>
       </c>
-      <c r="X11" s="52">
+      <c r="Y11" s="52">
         <v>44350</v>
       </c>
-      <c r="Y11" s="57"/>
       <c r="Z11" s="57"/>
-      <c r="AA11" s="52">
+      <c r="AA11" s="57"/>
+      <c r="AB11" s="52">
         <v>44342</v>
       </c>
-      <c r="AB11" s="57"/>
       <c r="AC11" s="57"/>
       <c r="AD11" s="57"/>
       <c r="AE11" s="57"/>
       <c r="AF11" s="57"/>
       <c r="AG11" s="57"/>
-      <c r="AH11" s="52"/>
-      <c r="AI11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="52"/>
       <c r="AJ11" s="57"/>
       <c r="AK11" s="57"/>
-      <c r="AL11" s="52"/>
-      <c r="AM11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="52"/>
       <c r="AN11" s="57"/>
       <c r="AO11" s="57"/>
-      <c r="AP11" s="52">
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="52">
         <v>44340</v>
       </c>
-      <c r="AQ11" s="57"/>
       <c r="AR11" s="57"/>
       <c r="AS11" s="57"/>
-      <c r="AT11" s="52">
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="52">
         <v>44377</v>
       </c>
-      <c r="AU11" s="57"/>
-      <c r="AV11" s="52">
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="52">
         <v>44321</v>
       </c>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="52"/>
       <c r="AZ11" s="57"/>
       <c r="BA11" s="57"/>
       <c r="BB11" s="57"/>
       <c r="BC11" s="57"/>
       <c r="BD11" s="57"/>
-      <c r="BE11" s="58"/>
+      <c r="BE11" s="57"/>
       <c r="BF11" s="58"/>
-    </row>
-    <row r="12" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG11" s="58"/>
+    </row>
+    <row r="12" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="24"/>
       <c r="C12" s="51"/>
@@ -3795,54 +3813,54 @@
       <c r="O12" s="59"/>
       <c r="P12" s="59"/>
       <c r="Q12" s="59"/>
-      <c r="R12" s="52">
+      <c r="R12" s="59"/>
+      <c r="S12" s="52">
         <v>44330</v>
       </c>
-      <c r="S12" s="59"/>
       <c r="T12" s="59"/>
-      <c r="U12" s="52">
+      <c r="U12" s="59"/>
+      <c r="V12" s="52">
         <v>44354</v>
       </c>
-      <c r="V12" s="55"/>
-      <c r="W12" s="60">
+      <c r="W12" s="55"/>
+      <c r="X12" s="60">
         <v>44372</v>
       </c>
-      <c r="X12" s="52">
+      <c r="Y12" s="52">
         <v>44351</v>
       </c>
-      <c r="Y12" s="59"/>
       <c r="Z12" s="59"/>
-      <c r="AA12" s="52">
+      <c r="AA12" s="59"/>
+      <c r="AB12" s="52">
         <v>44349</v>
       </c>
-      <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
       <c r="AD12" s="59"/>
       <c r="AE12" s="59"/>
       <c r="AF12" s="59"/>
       <c r="AG12" s="59"/>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="59"/>
+      <c r="AH12" s="59"/>
+      <c r="AI12" s="52"/>
       <c r="AJ12" s="59"/>
       <c r="AK12" s="59"/>
       <c r="AL12" s="59"/>
       <c r="AM12" s="59"/>
       <c r="AN12" s="59"/>
       <c r="AO12" s="59"/>
-      <c r="AP12" s="52">
+      <c r="AP12" s="59"/>
+      <c r="AQ12" s="52">
         <v>44341</v>
       </c>
-      <c r="AQ12" s="59"/>
       <c r="AR12" s="59"/>
       <c r="AS12" s="59"/>
       <c r="AT12" s="59"/>
       <c r="AU12" s="59"/>
-      <c r="AV12" s="52">
+      <c r="AV12" s="59"/>
+      <c r="AW12" s="52">
         <v>44322</v>
       </c>
-      <c r="AW12" s="59"/>
-      <c r="AX12" s="52"/>
-      <c r="AY12" s="59"/>
+      <c r="AX12" s="59"/>
+      <c r="AY12" s="52"/>
       <c r="AZ12" s="59"/>
       <c r="BA12" s="59"/>
       <c r="BB12" s="59"/>
@@ -3850,8 +3868,9 @@
       <c r="BD12" s="59"/>
       <c r="BE12" s="59"/>
       <c r="BF12" s="59"/>
-    </row>
-    <row r="13" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG12" s="59"/>
+    </row>
+    <row r="13" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="25"/>
       <c r="C13" s="51"/>
@@ -3869,25 +3888,25 @@
       <c r="O13" s="57"/>
       <c r="P13" s="57"/>
       <c r="Q13" s="57"/>
-      <c r="R13" s="52">
+      <c r="R13" s="57"/>
+      <c r="S13" s="52">
         <v>44337</v>
       </c>
-      <c r="S13" s="57"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="52">
+      <c r="U13" s="57"/>
+      <c r="V13" s="52">
         <v>44355</v>
       </c>
-      <c r="V13" s="57"/>
-      <c r="W13" s="60">
+      <c r="W13" s="57"/>
+      <c r="X13" s="60">
         <v>44373</v>
       </c>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="57"/>
+      <c r="Y13" s="52"/>
       <c r="Z13" s="57"/>
-      <c r="AA13" s="52">
+      <c r="AA13" s="57"/>
+      <c r="AB13" s="52">
         <v>44356</v>
       </c>
-      <c r="AB13" s="57"/>
       <c r="AC13" s="57"/>
       <c r="AD13" s="57"/>
       <c r="AE13" s="57"/>
@@ -3901,29 +3920,30 @@
       <c r="AM13" s="57"/>
       <c r="AN13" s="57"/>
       <c r="AO13" s="57"/>
-      <c r="AP13" s="52">
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="52">
         <v>44342</v>
       </c>
-      <c r="AQ13" s="57"/>
       <c r="AR13" s="57"/>
       <c r="AS13" s="57"/>
       <c r="AT13" s="57"/>
       <c r="AU13" s="57"/>
-      <c r="AV13" s="52">
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="52">
         <v>44323</v>
       </c>
-      <c r="AW13" s="57"/>
-      <c r="AX13" s="52"/>
-      <c r="AY13" s="57"/>
+      <c r="AX13" s="57"/>
+      <c r="AY13" s="52"/>
       <c r="AZ13" s="57"/>
       <c r="BA13" s="57"/>
       <c r="BB13" s="57"/>
       <c r="BC13" s="57"/>
       <c r="BD13" s="57"/>
-      <c r="BE13" s="58"/>
+      <c r="BE13" s="57"/>
       <c r="BF13" s="58"/>
-    </row>
-    <row r="14" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG13" s="58"/>
+    </row>
+    <row r="14" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="24"/>
       <c r="C14" s="51"/>
@@ -3941,23 +3961,23 @@
       <c r="O14" s="59"/>
       <c r="P14" s="59"/>
       <c r="Q14" s="59"/>
-      <c r="R14" s="52">
+      <c r="R14" s="59"/>
+      <c r="S14" s="52">
         <v>44344</v>
       </c>
-      <c r="S14" s="59"/>
       <c r="T14" s="59"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="60">
+      <c r="U14" s="59"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="59"/>
+      <c r="X14" s="60">
         <v>44374</v>
       </c>
-      <c r="X14" s="59"/>
       <c r="Y14" s="59"/>
       <c r="Z14" s="59"/>
-      <c r="AA14" s="52">
+      <c r="AA14" s="59"/>
+      <c r="AB14" s="52">
         <v>44363</v>
       </c>
-      <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
       <c r="AD14" s="59"/>
       <c r="AE14" s="59"/>
@@ -3971,20 +3991,20 @@
       <c r="AM14" s="59"/>
       <c r="AN14" s="59"/>
       <c r="AO14" s="59"/>
-      <c r="AP14" s="52">
+      <c r="AP14" s="59"/>
+      <c r="AQ14" s="52">
         <v>44343</v>
       </c>
-      <c r="AQ14" s="59"/>
       <c r="AR14" s="59"/>
       <c r="AS14" s="59"/>
       <c r="AT14" s="59"/>
       <c r="AU14" s="59"/>
-      <c r="AV14" s="52">
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="52">
         <v>44354</v>
       </c>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="52"/>
-      <c r="AY14" s="59"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="52"/>
       <c r="AZ14" s="59"/>
       <c r="BA14" s="59"/>
       <c r="BB14" s="59"/>
@@ -3992,8 +4012,9 @@
       <c r="BD14" s="59"/>
       <c r="BE14" s="59"/>
       <c r="BF14" s="59"/>
-    </row>
-    <row r="15" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG14" s="59"/>
+    </row>
+    <row r="15" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="25"/>
       <c r="C15" s="57"/>
@@ -4011,21 +4032,21 @@
       <c r="O15" s="57"/>
       <c r="P15" s="57"/>
       <c r="Q15" s="57"/>
-      <c r="R15" s="52">
+      <c r="R15" s="57"/>
+      <c r="S15" s="52">
         <v>44347</v>
       </c>
-      <c r="S15" s="57"/>
       <c r="T15" s="57"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="52"/>
       <c r="W15" s="57"/>
       <c r="X15" s="57"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="57"/>
-      <c r="AA15" s="52">
+      <c r="AA15" s="57"/>
+      <c r="AB15" s="52">
         <v>44370</v>
       </c>
-      <c r="AB15" s="57"/>
       <c r="AC15" s="57"/>
       <c r="AD15" s="57"/>
       <c r="AE15" s="57"/>
@@ -4039,29 +4060,30 @@
       <c r="AM15" s="57"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="57"/>
-      <c r="AP15" s="52">
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="52">
         <v>44344</v>
       </c>
-      <c r="AQ15" s="57"/>
       <c r="AR15" s="57"/>
       <c r="AS15" s="57"/>
       <c r="AT15" s="57"/>
       <c r="AU15" s="57"/>
-      <c r="AV15" s="52">
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="52">
         <v>44355</v>
       </c>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="52"/>
       <c r="AZ15" s="57"/>
       <c r="BA15" s="57"/>
       <c r="BB15" s="57"/>
       <c r="BC15" s="57"/>
       <c r="BD15" s="57"/>
-      <c r="BE15" s="58"/>
+      <c r="BE15" s="57"/>
       <c r="BF15" s="58"/>
-    </row>
-    <row r="16" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG15" s="58"/>
+    </row>
+    <row r="16" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16"/>
       <c r="B16" s="24"/>
       <c r="C16" s="59"/>
@@ -4079,21 +4101,21 @@
       <c r="O16" s="59"/>
       <c r="P16" s="59"/>
       <c r="Q16" s="59"/>
-      <c r="R16" s="52">
+      <c r="R16" s="59"/>
+      <c r="S16" s="52">
         <v>44348</v>
       </c>
-      <c r="S16" s="59"/>
       <c r="T16" s="59"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="59"/>
+      <c r="U16" s="59"/>
+      <c r="V16" s="52"/>
       <c r="W16" s="59"/>
       <c r="X16" s="59"/>
       <c r="Y16" s="59"/>
       <c r="Z16" s="59"/>
-      <c r="AA16" s="52">
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="52">
         <v>44377</v>
       </c>
-      <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
       <c r="AD16" s="59"/>
       <c r="AE16" s="59"/>
@@ -4107,20 +4129,20 @@
       <c r="AM16" s="59"/>
       <c r="AN16" s="59"/>
       <c r="AO16" s="59"/>
-      <c r="AP16" s="52">
+      <c r="AP16" s="59"/>
+      <c r="AQ16" s="52">
         <v>44375</v>
       </c>
-      <c r="AQ16" s="59"/>
       <c r="AR16" s="59"/>
       <c r="AS16" s="59"/>
       <c r="AT16" s="59"/>
       <c r="AU16" s="59"/>
-      <c r="AV16" s="52">
+      <c r="AV16" s="59"/>
+      <c r="AW16" s="52">
         <v>44356</v>
       </c>
-      <c r="AW16" s="59"/>
-      <c r="AX16" s="52"/>
-      <c r="AY16" s="59"/>
+      <c r="AX16" s="59"/>
+      <c r="AY16" s="52"/>
       <c r="AZ16" s="59"/>
       <c r="BA16" s="59"/>
       <c r="BB16" s="59"/>
@@ -4128,8 +4150,9 @@
       <c r="BD16" s="59"/>
       <c r="BE16" s="59"/>
       <c r="BF16" s="59"/>
-    </row>
-    <row r="17" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG16" s="59"/>
+    </row>
+    <row r="17" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="25"/>
       <c r="C17" s="57"/>
@@ -4147,19 +4170,19 @@
       <c r="O17" s="57"/>
       <c r="P17" s="57"/>
       <c r="Q17" s="57"/>
-      <c r="R17" s="52">
+      <c r="R17" s="57"/>
+      <c r="S17" s="52">
         <v>44349</v>
       </c>
-      <c r="S17" s="57"/>
       <c r="T17" s="57"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="52"/>
       <c r="W17" s="57"/>
       <c r="X17" s="57"/>
       <c r="Y17" s="57"/>
       <c r="Z17" s="57"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="57"/>
+      <c r="AA17" s="57"/>
+      <c r="AB17" s="52"/>
       <c r="AC17" s="57"/>
       <c r="AD17" s="57"/>
       <c r="AE17" s="57"/>
@@ -4173,18 +4196,18 @@
       <c r="AM17" s="57"/>
       <c r="AN17" s="57"/>
       <c r="AO17" s="57"/>
-      <c r="AP17" s="52">
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="52">
         <v>44376</v>
       </c>
-      <c r="AQ17" s="57"/>
       <c r="AR17" s="57"/>
       <c r="AS17" s="57"/>
       <c r="AT17" s="57"/>
       <c r="AU17" s="57"/>
-      <c r="AV17" s="52">
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="52">
         <v>44357</v>
       </c>
-      <c r="AW17" s="57"/>
       <c r="AX17" s="57"/>
       <c r="AY17" s="57"/>
       <c r="AZ17" s="57"/>
@@ -4192,10 +4215,11 @@
       <c r="BB17" s="57"/>
       <c r="BC17" s="57"/>
       <c r="BD17" s="57"/>
-      <c r="BE17" s="58"/>
+      <c r="BE17" s="57"/>
       <c r="BF17" s="58"/>
-    </row>
-    <row r="18" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG17" s="58"/>
+    </row>
+    <row r="18" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="24"/>
       <c r="C18" s="59"/>
@@ -4213,13 +4237,13 @@
       <c r="O18" s="59"/>
       <c r="P18" s="59"/>
       <c r="Q18" s="59"/>
-      <c r="R18" s="52">
+      <c r="R18" s="59"/>
+      <c r="S18" s="52">
         <v>44351</v>
       </c>
-      <c r="S18" s="59"/>
       <c r="T18" s="59"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="52"/>
       <c r="W18" s="59"/>
       <c r="X18" s="59"/>
       <c r="Y18" s="59"/>
@@ -4239,18 +4263,18 @@
       <c r="AM18" s="59"/>
       <c r="AN18" s="59"/>
       <c r="AO18" s="59"/>
-      <c r="AP18" s="52">
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="52">
         <v>44377</v>
       </c>
-      <c r="AQ18" s="59"/>
       <c r="AR18" s="59"/>
       <c r="AS18" s="59"/>
       <c r="AT18" s="59"/>
       <c r="AU18" s="59"/>
-      <c r="AV18" s="52">
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="52">
         <v>44358</v>
       </c>
-      <c r="AW18" s="59"/>
       <c r="AX18" s="59"/>
       <c r="AY18" s="59"/>
       <c r="AZ18" s="59"/>
@@ -4260,8 +4284,9 @@
       <c r="BD18" s="59"/>
       <c r="BE18" s="59"/>
       <c r="BF18" s="59"/>
-    </row>
-    <row r="19" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG18" s="59"/>
+    </row>
+    <row r="19" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="25"/>
       <c r="C19" s="57"/>
@@ -4279,13 +4304,13 @@
       <c r="O19" s="57"/>
       <c r="P19" s="57"/>
       <c r="Q19" s="57"/>
-      <c r="R19" s="52">
+      <c r="R19" s="57"/>
+      <c r="S19" s="52">
         <v>44358</v>
       </c>
-      <c r="S19" s="57"/>
       <c r="T19" s="57"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="52"/>
       <c r="W19" s="57"/>
       <c r="X19" s="57"/>
       <c r="Y19" s="57"/>
@@ -4320,10 +4345,11 @@
       <c r="BB19" s="57"/>
       <c r="BC19" s="57"/>
       <c r="BD19" s="57"/>
-      <c r="BE19" s="58"/>
+      <c r="BE19" s="57"/>
       <c r="BF19" s="58"/>
-    </row>
-    <row r="20" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG19" s="58"/>
+    </row>
+    <row r="20" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="24"/>
       <c r="C20" s="59"/>
@@ -4341,13 +4367,13 @@
       <c r="O20" s="59"/>
       <c r="P20" s="59"/>
       <c r="Q20" s="59"/>
-      <c r="R20" s="52">
+      <c r="R20" s="59"/>
+      <c r="S20" s="52">
         <v>44365</v>
       </c>
-      <c r="S20" s="59"/>
       <c r="T20" s="59"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="52"/>
       <c r="W20" s="59"/>
       <c r="X20" s="59"/>
       <c r="Y20" s="59"/>
@@ -4384,8 +4410,9 @@
       <c r="BD20" s="59"/>
       <c r="BE20" s="59"/>
       <c r="BF20" s="59"/>
-    </row>
-    <row r="21" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG20" s="59"/>
+    </row>
+    <row r="21" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="25"/>
       <c r="C21" s="57"/>
@@ -4403,13 +4430,13 @@
       <c r="O21" s="57"/>
       <c r="P21" s="57"/>
       <c r="Q21" s="57"/>
-      <c r="R21" s="52">
+      <c r="R21" s="57"/>
+      <c r="S21" s="52">
         <v>44372</v>
       </c>
-      <c r="S21" s="57"/>
       <c r="T21" s="57"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="52"/>
       <c r="W21" s="57"/>
       <c r="X21" s="57"/>
       <c r="Y21" s="57"/>
@@ -4444,10 +4471,11 @@
       <c r="BB21" s="57"/>
       <c r="BC21" s="57"/>
       <c r="BD21" s="57"/>
-      <c r="BE21" s="58"/>
+      <c r="BE21" s="57"/>
       <c r="BF21" s="58"/>
-    </row>
-    <row r="22" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BG21" s="58"/>
+    </row>
+    <row r="22" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="24"/>
       <c r="C22" s="59"/>
@@ -4505,9 +4533,10 @@
       <c r="BC22" s="59"/>
       <c r="BD22" s="59"/>
       <c r="BE22" s="59"/>
-      <c r="BF22" s="27"/>
-    </row>
-    <row r="23" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF22" s="59"/>
+      <c r="BG22" s="27"/>
+    </row>
+    <row r="23" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="25"/>
       <c r="C23" s="57"/>
@@ -4564,10 +4593,11 @@
       <c r="BB23" s="57"/>
       <c r="BC23" s="57"/>
       <c r="BD23" s="57"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="26"/>
-    </row>
-    <row r="24" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="58"/>
+      <c r="BG23" s="26"/>
+    </row>
+    <row r="24" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="24"/>
       <c r="C24" s="59"/>
@@ -4625,9 +4655,10 @@
       <c r="BC24" s="59"/>
       <c r="BD24" s="59"/>
       <c r="BE24" s="59"/>
-      <c r="BF24" s="27"/>
-    </row>
-    <row r="25" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF24" s="59"/>
+      <c r="BG24" s="27"/>
+    </row>
+    <row r="25" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16"/>
       <c r="B25" s="25"/>
       <c r="C25" s="57"/>
@@ -4684,10 +4715,11 @@
       <c r="BB25" s="57"/>
       <c r="BC25" s="57"/>
       <c r="BD25" s="57"/>
-      <c r="BE25" s="58"/>
-      <c r="BF25" s="26"/>
-    </row>
-    <row r="26" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="58"/>
+      <c r="BG25" s="26"/>
+    </row>
+    <row r="26" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="24"/>
       <c r="C26" s="59"/>
@@ -4745,9 +4777,10 @@
       <c r="BC26" s="59"/>
       <c r="BD26" s="59"/>
       <c r="BE26" s="59"/>
-      <c r="BF26" s="27"/>
-    </row>
-    <row r="27" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF26" s="59"/>
+      <c r="BG26" s="27"/>
+    </row>
+    <row r="27" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="25"/>
       <c r="C27" s="57"/>
@@ -4804,10 +4837,11 @@
       <c r="BB27" s="57"/>
       <c r="BC27" s="57"/>
       <c r="BD27" s="57"/>
-      <c r="BE27" s="58"/>
-      <c r="BF27" s="26"/>
-    </row>
-    <row r="28" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="58"/>
+      <c r="BG27" s="26"/>
+    </row>
+    <row r="28" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="24"/>
       <c r="C28" s="59"/>
@@ -4865,9 +4899,10 @@
       <c r="BC28" s="59"/>
       <c r="BD28" s="59"/>
       <c r="BE28" s="59"/>
-      <c r="BF28" s="27"/>
-    </row>
-    <row r="29" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF28" s="59"/>
+      <c r="BG28" s="27"/>
+    </row>
+    <row r="29" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="25"/>
       <c r="C29" s="57"/>
@@ -4924,10 +4959,11 @@
       <c r="BB29" s="57"/>
       <c r="BC29" s="57"/>
       <c r="BD29" s="57"/>
-      <c r="BE29" s="58"/>
-      <c r="BF29" s="26"/>
-    </row>
-    <row r="30" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="58"/>
+      <c r="BG29" s="26"/>
+    </row>
+    <row r="30" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16"/>
       <c r="B30" s="24"/>
       <c r="C30" s="59"/>
@@ -4985,9 +5021,10 @@
       <c r="BC30" s="59"/>
       <c r="BD30" s="59"/>
       <c r="BE30" s="59"/>
-      <c r="BF30" s="27"/>
-    </row>
-    <row r="31" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF30" s="59"/>
+      <c r="BG30" s="27"/>
+    </row>
+    <row r="31" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16"/>
       <c r="B31" s="25"/>
       <c r="C31" s="57"/>
@@ -5044,10 +5081,11 @@
       <c r="BB31" s="57"/>
       <c r="BC31" s="57"/>
       <c r="BD31" s="57"/>
-      <c r="BE31" s="58"/>
-      <c r="BF31" s="26"/>
-    </row>
-    <row r="32" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="58"/>
+      <c r="BG31" s="26"/>
+    </row>
+    <row r="32" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16"/>
       <c r="B32" s="24"/>
       <c r="C32" s="59"/>
@@ -5105,9 +5143,10 @@
       <c r="BC32" s="59"/>
       <c r="BD32" s="59"/>
       <c r="BE32" s="59"/>
-      <c r="BF32" s="27"/>
-    </row>
-    <row r="33" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF32" s="59"/>
+      <c r="BG32" s="27"/>
+    </row>
+    <row r="33" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16"/>
       <c r="B33" s="25"/>
       <c r="C33" s="57"/>
@@ -5164,10 +5203,11 @@
       <c r="BB33" s="57"/>
       <c r="BC33" s="57"/>
       <c r="BD33" s="57"/>
-      <c r="BE33" s="58"/>
-      <c r="BF33" s="26"/>
-    </row>
-    <row r="34" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE33" s="57"/>
+      <c r="BF33" s="58"/>
+      <c r="BG33" s="26"/>
+    </row>
+    <row r="34" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16"/>
       <c r="B34" s="24"/>
       <c r="C34" s="59"/>
@@ -5225,9 +5265,10 @@
       <c r="BC34" s="59"/>
       <c r="BD34" s="59"/>
       <c r="BE34" s="59"/>
-      <c r="BF34" s="27"/>
-    </row>
-    <row r="35" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF34" s="59"/>
+      <c r="BG34" s="27"/>
+    </row>
+    <row r="35" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16"/>
       <c r="B35" s="25"/>
       <c r="C35" s="57"/>
@@ -5284,10 +5325,11 @@
       <c r="BB35" s="57"/>
       <c r="BC35" s="57"/>
       <c r="BD35" s="57"/>
-      <c r="BE35" s="58"/>
-      <c r="BF35" s="26"/>
-    </row>
-    <row r="36" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE35" s="57"/>
+      <c r="BF35" s="58"/>
+      <c r="BG35" s="26"/>
+    </row>
+    <row r="36" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="16"/>
       <c r="B36" s="24"/>
       <c r="C36" s="59"/>
@@ -5345,9 +5387,10 @@
       <c r="BC36" s="59"/>
       <c r="BD36" s="59"/>
       <c r="BE36" s="59"/>
-      <c r="BF36" s="27"/>
-    </row>
-    <row r="37" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF36" s="59"/>
+      <c r="BG36" s="27"/>
+    </row>
+    <row r="37" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16"/>
       <c r="B37" s="25"/>
       <c r="C37" s="57"/>
@@ -5404,10 +5447,11 @@
       <c r="BB37" s="57"/>
       <c r="BC37" s="57"/>
       <c r="BD37" s="57"/>
-      <c r="BE37" s="58"/>
-      <c r="BF37" s="26"/>
-    </row>
-    <row r="38" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE37" s="57"/>
+      <c r="BF37" s="58"/>
+      <c r="BG37" s="26"/>
+    </row>
+    <row r="38" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="16"/>
       <c r="B38" s="24"/>
       <c r="C38" s="59"/>
@@ -5465,9 +5509,10 @@
       <c r="BC38" s="59"/>
       <c r="BD38" s="59"/>
       <c r="BE38" s="59"/>
-      <c r="BF38" s="27"/>
-    </row>
-    <row r="39" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF38" s="59"/>
+      <c r="BG38" s="27"/>
+    </row>
+    <row r="39" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="25"/>
       <c r="C39" s="57"/>
@@ -5524,10 +5569,11 @@
       <c r="BB39" s="57"/>
       <c r="BC39" s="57"/>
       <c r="BD39" s="57"/>
-      <c r="BE39" s="58"/>
-      <c r="BF39" s="26"/>
-    </row>
-    <row r="40" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE39" s="57"/>
+      <c r="BF39" s="58"/>
+      <c r="BG39" s="26"/>
+    </row>
+    <row r="40" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="24"/>
       <c r="C40" s="59"/>
@@ -5585,9 +5631,10 @@
       <c r="BC40" s="59"/>
       <c r="BD40" s="59"/>
       <c r="BE40" s="59"/>
-      <c r="BF40" s="27"/>
-    </row>
-    <row r="41" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF40" s="59"/>
+      <c r="BG40" s="27"/>
+    </row>
+    <row r="41" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="25"/>
       <c r="C41" s="57"/>
@@ -5644,10 +5691,11 @@
       <c r="BB41" s="57"/>
       <c r="BC41" s="57"/>
       <c r="BD41" s="57"/>
-      <c r="BE41" s="58"/>
-      <c r="BF41" s="26"/>
-    </row>
-    <row r="42" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE41" s="57"/>
+      <c r="BF41" s="58"/>
+      <c r="BG41" s="26"/>
+    </row>
+    <row r="42" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="24"/>
       <c r="C42" s="59"/>
@@ -5705,9 +5753,10 @@
       <c r="BC42" s="59"/>
       <c r="BD42" s="59"/>
       <c r="BE42" s="59"/>
-      <c r="BF42" s="27"/>
-    </row>
-    <row r="43" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF42" s="59"/>
+      <c r="BG42" s="27"/>
+    </row>
+    <row r="43" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="25"/>
       <c r="C43" s="57"/>
@@ -5764,10 +5813,11 @@
       <c r="BB43" s="57"/>
       <c r="BC43" s="57"/>
       <c r="BD43" s="57"/>
-      <c r="BE43" s="58"/>
-      <c r="BF43" s="26"/>
-    </row>
-    <row r="44" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE43" s="57"/>
+      <c r="BF43" s="58"/>
+      <c r="BG43" s="26"/>
+    </row>
+    <row r="44" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16"/>
       <c r="B44" s="24"/>
       <c r="C44" s="59"/>
@@ -5825,9 +5875,10 @@
       <c r="BC44" s="59"/>
       <c r="BD44" s="59"/>
       <c r="BE44" s="59"/>
-      <c r="BF44" s="27"/>
-    </row>
-    <row r="45" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF44" s="59"/>
+      <c r="BG44" s="27"/>
+    </row>
+    <row r="45" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="25"/>
       <c r="C45" s="57"/>
@@ -5884,10 +5935,11 @@
       <c r="BB45" s="57"/>
       <c r="BC45" s="57"/>
       <c r="BD45" s="57"/>
-      <c r="BE45" s="58"/>
-      <c r="BF45" s="26"/>
-    </row>
-    <row r="46" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE45" s="57"/>
+      <c r="BF45" s="58"/>
+      <c r="BG45" s="26"/>
+    </row>
+    <row r="46" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="24"/>
       <c r="C46" s="59"/>
@@ -5945,9 +5997,10 @@
       <c r="BC46" s="59"/>
       <c r="BD46" s="59"/>
       <c r="BE46" s="59"/>
-      <c r="BF46" s="27"/>
-    </row>
-    <row r="47" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF46" s="59"/>
+      <c r="BG46" s="27"/>
+    </row>
+    <row r="47" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="25"/>
       <c r="C47" s="57"/>
@@ -6004,10 +6057,11 @@
       <c r="BB47" s="57"/>
       <c r="BC47" s="57"/>
       <c r="BD47" s="57"/>
-      <c r="BE47" s="58"/>
-      <c r="BF47" s="26"/>
-    </row>
-    <row r="48" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE47" s="57"/>
+      <c r="BF47" s="58"/>
+      <c r="BG47" s="26"/>
+    </row>
+    <row r="48" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="24"/>
       <c r="C48" s="59"/>
@@ -6065,9 +6119,10 @@
       <c r="BC48" s="59"/>
       <c r="BD48" s="59"/>
       <c r="BE48" s="59"/>
-      <c r="BF48" s="27"/>
-    </row>
-    <row r="49" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BF48" s="59"/>
+      <c r="BG48" s="27"/>
+    </row>
+    <row r="49" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="25"/>
       <c r="C49" s="57"/>
@@ -6124,10 +6179,11 @@
       <c r="BB49" s="57"/>
       <c r="BC49" s="57"/>
       <c r="BD49" s="57"/>
-      <c r="BE49" s="58"/>
-      <c r="BF49" s="26"/>
-    </row>
-    <row r="50" spans="1:58" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BE49" s="57"/>
+      <c r="BF49" s="58"/>
+      <c r="BG49" s="26"/>
+    </row>
+    <row r="50" spans="1:59" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="28"/>
       <c r="B50" s="29"/>
       <c r="C50" s="68"/>
@@ -6185,137 +6241,138 @@
       <c r="BC50" s="68"/>
       <c r="BD50" s="68"/>
       <c r="BE50" s="68"/>
-      <c r="BF50" s="30"/>
-    </row>
-    <row r="51" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P51" s="65"/>
-    </row>
-    <row r="52" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P52" s="65"/>
-    </row>
-    <row r="53" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P53" s="65"/>
-    </row>
-    <row r="54" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P54" s="65"/>
-    </row>
-    <row r="55" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P55" s="65"/>
-    </row>
-    <row r="56" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P56" s="65"/>
-    </row>
-    <row r="57" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P57" s="65"/>
-    </row>
-    <row r="58" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P58" s="65"/>
-    </row>
-    <row r="59" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P59" s="65"/>
-    </row>
-    <row r="60" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P60" s="65"/>
-    </row>
-    <row r="61" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P61" s="65"/>
-    </row>
-    <row r="62" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P62" s="65"/>
-    </row>
-    <row r="63" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P63" s="65"/>
-    </row>
-    <row r="64" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P64" s="65"/>
-    </row>
-    <row r="65" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P65" s="65"/>
-    </row>
-    <row r="66" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P66" s="65"/>
-    </row>
-    <row r="67" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P67" s="65"/>
-    </row>
-    <row r="68" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P68" s="65"/>
-    </row>
-    <row r="69" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P69" s="65"/>
-    </row>
-    <row r="70" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P70" s="65"/>
-    </row>
-    <row r="71" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P71" s="65"/>
-    </row>
-    <row r="72" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P72" s="65"/>
-    </row>
-    <row r="73" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P73" s="65"/>
-    </row>
-    <row r="74" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P74" s="65"/>
-    </row>
-    <row r="75" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P75" s="65"/>
-    </row>
-    <row r="76" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P76" s="65"/>
-    </row>
-    <row r="77" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P77" s="65"/>
-    </row>
-    <row r="78" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P78" s="65"/>
-    </row>
-    <row r="79" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P79" s="65"/>
-    </row>
-    <row r="80" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P80" s="65"/>
-    </row>
-    <row r="81" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P81" s="65"/>
-    </row>
-    <row r="82" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P82" s="65"/>
-    </row>
-    <row r="83" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P83" s="65"/>
-    </row>
-    <row r="84" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P84" s="65"/>
-    </row>
-    <row r="85" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P85" s="65"/>
-    </row>
-    <row r="86" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P86" s="65"/>
-    </row>
-    <row r="87" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P87" s="65"/>
-    </row>
-    <row r="88" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P88" s="65"/>
-    </row>
-    <row r="89" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P89" s="65"/>
-    </row>
-    <row r="90" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P90" s="65"/>
-    </row>
-    <row r="91" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P91" s="65"/>
-    </row>
-    <row r="92" spans="16:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P92" s="65"/>
+      <c r="BF50" s="68"/>
+      <c r="BG50" s="30"/>
+    </row>
+    <row r="51" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q51" s="65"/>
+    </row>
+    <row r="52" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q52" s="65"/>
+    </row>
+    <row r="53" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q53" s="65"/>
+    </row>
+    <row r="54" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q54" s="65"/>
+    </row>
+    <row r="55" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q55" s="65"/>
+    </row>
+    <row r="56" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q56" s="65"/>
+    </row>
+    <row r="57" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q57" s="65"/>
+    </row>
+    <row r="58" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q58" s="65"/>
+    </row>
+    <row r="59" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q59" s="65"/>
+    </row>
+    <row r="60" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q60" s="65"/>
+    </row>
+    <row r="61" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q61" s="65"/>
+    </row>
+    <row r="62" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q62" s="65"/>
+    </row>
+    <row r="63" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q63" s="65"/>
+    </row>
+    <row r="64" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q64" s="65"/>
+    </row>
+    <row r="65" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q65" s="65"/>
+    </row>
+    <row r="66" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q66" s="65"/>
+    </row>
+    <row r="67" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q67" s="65"/>
+    </row>
+    <row r="68" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q68" s="65"/>
+    </row>
+    <row r="69" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q69" s="65"/>
+    </row>
+    <row r="70" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q70" s="65"/>
+    </row>
+    <row r="71" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q71" s="65"/>
+    </row>
+    <row r="72" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q72" s="65"/>
+    </row>
+    <row r="73" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q73" s="65"/>
+    </row>
+    <row r="74" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q74" s="65"/>
+    </row>
+    <row r="75" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q75" s="65"/>
+    </row>
+    <row r="76" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q76" s="65"/>
+    </row>
+    <row r="77" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q77" s="65"/>
+    </row>
+    <row r="78" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q78" s="65"/>
+    </row>
+    <row r="79" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q79" s="65"/>
+    </row>
+    <row r="80" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q80" s="65"/>
+    </row>
+    <row r="81" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q81" s="65"/>
+    </row>
+    <row r="82" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q82" s="65"/>
+    </row>
+    <row r="83" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q83" s="65"/>
+    </row>
+    <row r="84" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q84" s="65"/>
+    </row>
+    <row r="85" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q85" s="65"/>
+    </row>
+    <row r="86" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q86" s="65"/>
+    </row>
+    <row r="87" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q87" s="65"/>
+    </row>
+    <row r="88" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q88" s="65"/>
+    </row>
+    <row r="89" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q89" s="65"/>
+    </row>
+    <row r="90" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q90" s="65"/>
+    </row>
+    <row r="91" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q91" s="65"/>
+    </row>
+    <row r="92" spans="17:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q92" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C1:N1"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6441,8 +6498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6657,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="63">
         <v>0</v>
